--- a/WebUI/uploads/Master.xlsx
+++ b/WebUI/uploads/Master.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>رسم المحليات (قطعية)</t>
+  </si>
+  <si>
+    <t>رسم التامي</t>
+  </si>
+  <si>
+    <t>لايوجد</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -159,12 +168,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,8 +497,8 @@
       <c r="C2" s="6">
         <v>44805</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -517,8 +520,8 @@
       <c r="C3" s="6">
         <v>44819</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -530,7 +533,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>12345</v>
       </c>
@@ -540,8 +543,8 @@
       <c r="C4" s="6">
         <v>44829</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -553,11 +556,15 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4">
+      <formula1>"رسم المحليات (نسبة),رسم المحليات (قطعية),رسم التامين الصحى (نسبة),رسم التامي"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"رسم المحليات (نسبة),رسم المحليات (قطعية),رسم التامين الصحى (نسبة),رسم التامي,لايوجد"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebUI/uploads/Master.xlsx
+++ b/WebUI/uploads/Master.xlsx
@@ -57,10 +57,10 @@
     <t>رسم المحليات (قطعية)</t>
   </si>
   <si>
-    <t>رسم التامي</t>
-  </si>
-  <si>
     <t>لايوجد</t>
+  </si>
+  <si>
+    <t>رسم التامين الصحى (نسبة)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>44805</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -521,7 +521,7 @@
         <v>44819</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>

--- a/WebUI/uploads/Master.xlsx
+++ b/WebUI/uploads/Master.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -448,20 +448,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,9 +484,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -507,9 +507,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1234</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>1234566</v>
@@ -530,9 +530,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>12345</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>1234566</v>
@@ -553,7 +553,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
     </row>
